--- a/TpMobileAccountFun001.xlsx
+++ b/TpMobileAccountFun001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\SFMobileAppTesting001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B06F01-15E2-45A9-A76B-8F5423A06075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4729D982-B9E0-4D63-8935-404F2CBF71F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="168">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -903,7 +903,7 @@
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,7 +2742,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
         <v>114</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
         <v>118</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
         <v>122</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F132" t="s">
         <v>125</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F133" t="s">
         <v>128</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>159</v>
       </c>
@@ -2825,8 +2825,11 @@
       <c r="H134" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F135" t="s">
         <v>18</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
         <v>22</v>
       </c>
